--- a/pre_workshop_survey/indicator_dataset_H/H.xlsx
+++ b/pre_workshop_survey/indicator_dataset_H/H.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="89">
   <si>
     <t>Full name</t>
   </si>
@@ -113,6 +113,36 @@
     <t>ember production</t>
   </si>
   <si>
+    <t>Robbie Andrus</t>
+  </si>
+  <si>
+    <t>Becky Estes</t>
+  </si>
+  <si>
+    <t>Mean Fire Return Interval Departure (FRID) Condition Class - (USFS R5), Annual Burn Probability - (Pyrologix), Probability of Fire Severity (High) - (Pyrologix)</t>
+  </si>
+  <si>
+    <t>Mean Fire Return Interval Departure (FRID) Condition Class</t>
+  </si>
+  <si>
+    <t>USFS R5</t>
+  </si>
+  <si>
+    <t>Annual Burn Probability</t>
+  </si>
+  <si>
+    <t>Pyrologix</t>
+  </si>
+  <si>
+    <t>Probability of Fire Severity (High)</t>
+  </si>
+  <si>
+    <t>Laura Lazarus Lowrey</t>
+  </si>
+  <si>
+    <t>All above.</t>
+  </si>
+  <si>
     <t xml:space="preserve">What indicator(s) and dataset(s) would you use to quantify drought hazard magnitude in your area(s)? (Example: Indicator 1: Vapor Pressure Deficit, Dataset 1: Daymet-derived VPD)
 </t>
   </si>
@@ -138,6 +168,43 @@
   </si>
   <si>
     <t>TerraClimate</t>
+  </si>
+  <si>
+    <t>The two I most commonly use are 1. Standardized Precipitation Evaporation Index (using multiple time periods), 2. Climate water deficit</t>
+  </si>
+  <si>
+    <t>Standardized Precipitation Evaporation Index</t>
+  </si>
+  <si>
+    <t>Climate water deficit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climatic Water Deficit - Basin Characterization Model
+Precipitation Minus Actual Evapotranspiration During Average Conditions - (CECS)
+Meadow Sensitivity Index - Center for Watershed Sciences, UC Davis – see Meadows
+</t>
+  </si>
+  <si>
+    <t>Basin Characterization Model</t>
+  </si>
+  <si>
+    <t>Precipitation Minus Actual Evapotranspiration During Average Conditions</t>
+  </si>
+  <si>
+    <t>CECS</t>
+  </si>
+  <si>
+    <t>Meadow Sensitivity Index</t>
+  </si>
+  <si>
+    <t>Center for Watershed Sciences, UC Davis – see Meadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPD
+30 year mean-based Climatic water deficit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 year mean-based Climatic water deficit </t>
   </si>
   <si>
     <t xml:space="preserve">What indicator(s) and dataset(s) would you use to quantify insect outbreak hazard magnitude in your area(s)? (Example: Indicator 1: canopy density, Dataset 1: WADNR Forest Health Aerial Survey)
@@ -189,6 +256,50 @@
   </si>
   <si>
     <t>Forest Service aerial surveys</t>
+  </si>
+  <si>
+    <t>The entomology world uses definitions of hazard and risk that may differ from what's potentially being suggested in this workshop. I need to read the Lucina-Diaz papers before I provide more comment. Risk, in the context of insects, refers to probability of insect damage in a given year. We use the FS Insect and Disease aerial surveys to quantify annual bark beetle pressure (insect population size in neighboring areas) and metrics of drought.</t>
+  </si>
+  <si>
+    <t>FS Insect and Disease aerial survey</t>
+  </si>
+  <si>
+    <t>Time Since Last Disturbance - (UofW)
+Tree Mortality - Past 5 Years - (USFS R5 (F3))
+Risk of tree dieoff during drought - (CECS)</t>
+  </si>
+  <si>
+    <t>Time Since Last Disturbance</t>
+  </si>
+  <si>
+    <t>UofW</t>
+  </si>
+  <si>
+    <t>Tree Mortality - Past 5 Years</t>
+  </si>
+  <si>
+    <t>USFS R5 (F3)</t>
+  </si>
+  <si>
+    <t>Risk of tree dieoff during drought</t>
+  </si>
+  <si>
+    <t>Aerial Detection Survey annual and cumulative mortality layers
+BugNet RS tools
+New tool from ODF combining NAIP, DAP, lidar, and NDVI change detection
+Forest Density and height datasets for bark beetles combined with CWD or VPD</t>
+  </si>
+  <si>
+    <t>Aerial Detection Survey annual and cumulative mortality layers</t>
+  </si>
+  <si>
+    <t>BugNet RS tools</t>
+  </si>
+  <si>
+    <t>New tool from ODF combining NAIP, DAP, lidar, and NDVI change detection</t>
+  </si>
+  <si>
+    <t>Forest Density and height datasets for bark beetles combined with CWD or VPD</t>
   </si>
 </sst>
 </file>
@@ -381,7 +492,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F1012" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F1014" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="6">
     <tableColumn name="Full name" id="1"/>
     <tableColumn name="What indicator(s) and dataset(s) would you use to quantify wildfire hazard magnitude in your area(s)? (Example: Indicator 1: Fire Weather Index, Dataset 1: ORNL High-Resolution Fire Weather Index ..." id="2"/>
@@ -395,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A1001" displayName="Table_2" name="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A1005" displayName="Table_2" name="Table_2" id="2">
   <tableColumns count="1">
     <tableColumn name="Full name" id="1"/>
   </tableColumns>
@@ -404,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:F1001" displayName="Table_3" name="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:F1005" displayName="Table_3" name="Table_3" id="3">
   <tableColumns count="5">
     <tableColumn name="What indicator(s) and dataset(s) would you use to quantify drought hazard magnitude in your area(s)? (Example: Indicator 1: Vapor Pressure Deficit, Dataset 1: Daymet-derived VPD)_x000a_" id="1"/>
     <tableColumn name="Indicator" id="2"/>
@@ -417,7 +528,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A1003" displayName="Table_4" name="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A1005" displayName="Table_4" name="Table_4" id="4">
   <tableColumns count="1">
     <tableColumn name="Full name" id="1"/>
   </tableColumns>
@@ -426,7 +537,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:F1003" displayName="Table_5" name="Table_5" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:F1005" displayName="Table_5" name="Table_5" id="5">
   <tableColumns count="5">
     <tableColumn name="What indicator(s) and dataset(s) would you use to quantify insect outbreak hazard magnitude in your area(s)? (Example: Indicator 1: canopy density, Dataset 1: WADNR Forest Health Aerial Survey)_x000a_" id="1"/>
     <tableColumn name="Indicator" id="2"/>
@@ -911,52 +1022,94 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="8"/>
@@ -969,34 +1122,34 @@
     <row r="23">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="8"/>
@@ -8856,7 +9009,7 @@
     </row>
     <row r="1009">
       <c r="A1009" s="8"/>
-      <c r="B1009" s="4"/>
+      <c r="B1009" s="8"/>
       <c r="C1009" s="4"/>
       <c r="D1009" s="4"/>
       <c r="E1009" s="4"/>
@@ -8864,7 +9017,7 @@
     </row>
     <row r="1010">
       <c r="A1010" s="8"/>
-      <c r="B1010" s="4"/>
+      <c r="B1010" s="8"/>
       <c r="C1010" s="4"/>
       <c r="D1010" s="4"/>
       <c r="E1010" s="4"/>
@@ -8885,6 +9038,22 @@
       <c r="D1012" s="4"/>
       <c r="E1012" s="4"/>
       <c r="F1012" s="4"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="8"/>
+      <c r="B1013" s="4"/>
+      <c r="C1013" s="4"/>
+      <c r="D1013" s="4"/>
+      <c r="E1013" s="4"/>
+      <c r="F1013" s="4"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="8"/>
+      <c r="B1014" s="4"/>
+      <c r="C1014" s="4"/>
+      <c r="D1014" s="4"/>
+      <c r="E1014" s="4"/>
+      <c r="F1014" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8900,16 +9069,22 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="55.25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -8939,16 +9114,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -8959,16 +9134,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
@@ -8979,19 +9154,19 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -8999,19 +9174,19 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -9045,68 +9220,136 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="9"/>
     </row>
     <row r="17">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="8"/>
@@ -9119,25 +9362,25 @@
     <row r="19">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22">
@@ -16983,6 +17226,38 @@
     <row r="1002">
       <c r="A1002" s="8"/>
       <c r="B1002" s="8"/>
+      <c r="C1002" s="4"/>
+      <c r="D1002" s="4"/>
+      <c r="E1002" s="4"/>
+      <c r="F1002" s="4"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="8"/>
+      <c r="C1003" s="4"/>
+      <c r="D1003" s="4"/>
+      <c r="E1003" s="4"/>
+      <c r="F1003" s="4"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="8"/>
+      <c r="C1004" s="4"/>
+      <c r="D1004" s="4"/>
+      <c r="E1004" s="4"/>
+      <c r="F1004" s="4"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="8"/>
+      <c r="B1005" s="8"/>
+      <c r="C1005" s="4"/>
+      <c r="D1005" s="4"/>
+      <c r="E1005" s="4"/>
+      <c r="F1005" s="4"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="8"/>
+      <c r="B1006" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -17017,7 +17292,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -17037,19 +17312,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -17057,19 +17332,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -17077,19 +17352,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -17097,19 +17372,19 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -17117,19 +17392,19 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -17157,103 +17432,181 @@
         <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21">
@@ -25119,6 +25472,22 @@
       <c r="D1003" s="4"/>
       <c r="E1003" s="4"/>
       <c r="F1003" s="4"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="8"/>
+      <c r="C1004" s="4"/>
+      <c r="D1004" s="4"/>
+      <c r="E1004" s="4"/>
+      <c r="F1004" s="4"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="8"/>
+      <c r="B1005" s="8"/>
+      <c r="C1005" s="4"/>
+      <c r="D1005" s="4"/>
+      <c r="E1005" s="4"/>
+      <c r="F1005" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
